--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0026-002 - View agenda pada Mobile.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0026-002 - View agenda pada Mobile.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8957B4B1-CFB8-4A74-B39A-744348CE76F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2217D3DD-ABAD-433F-9D47-F626CB9CF6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0338" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0026" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -96,9 +96,6 @@
  - Untuk Lihat agenda melalui DigiSales Mobile:  Klik Lihat Semua</t>
   </si>
   <si>
-    <t>SCD0338-002</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Pemimpin Outlet hanya dapat melihat aktivitas sales kelolaan nya
  - Fungsi View sales lain hanya terdapat pada Portal
  - Fungsi Pemberian Comment hanya terdapat di Portal
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Test Daily Activity</t>
+  </si>
+  <si>
+    <t>SCD0026-002</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>17</v>
@@ -600,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="10">
         <v>30344</v>
@@ -609,7 +609,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>15</v>
@@ -621,14 +621,14 @@
         <v>18</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="15" t="str">
         <f ca="1">TEXT(TODAY(),"dd-mmm-yyyy")</f>
-        <v>21-Oct-2022</v>
+        <v>08-Nov-2022</v>
       </c>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
